--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_6_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_6_27.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1396326.90711547</v>
+        <v>1411645.220840044</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>713587.7684111182</v>
+        <v>713587.768411118</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11813519.27205211</v>
+        <v>11813519.27205212</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7122423.664142367</v>
+        <v>7122423.664142368</v>
       </c>
     </row>
     <row r="11">
@@ -735,28 +735,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>121.2086027464166</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -798,13 +798,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>12.20112622735861</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -841,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -856,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -905,13 +905,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G5" t="n">
-        <v>55.54022196058086</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1023,16 +1023,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>161.8883418614835</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>197.0267637357615</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1072,13 +1072,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1093,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1148,13 +1148,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>71.01467844038824</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1221,16 +1221,16 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,22 +1257,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>162.5208520193274</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>230.5219311756913</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1312,10 +1312,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1379,16 +1379,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S11" t="n">
-        <v>129.0632770397859</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>117.3450705775779</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>29.63438288880484</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>7.42522453130207</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>165.8272126914158</v>
@@ -1512,10 +1512,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1576,7 +1576,7 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S13" t="n">
-        <v>96.06064116356411</v>
+        <v>96.06064116356413</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1610,16 +1610,16 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>177.9764203375143</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1652,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>22.50045648192754</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S14" t="n">
         <v>195.5929138346465</v>
@@ -1661,19 +1661,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1683,13 +1683,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>43.10070109604781</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
@@ -1701,10 +1701,10 @@
         <v>137.0282495084215</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1740,10 +1740,10 @@
         <v>198.8939788055617</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1752,7 +1752,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>202.8678260502973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1780,13 +1780,13 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>39.2952677809261</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>147.5019580580808</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>74.67247646141476</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>64.0297007843443</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>96.06064116356411</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1859,7 +1859,7 @@
         <v>405.7415719969023</v>
       </c>
       <c r="H17" t="n">
-        <v>26.50533691882893</v>
+        <v>26.50533691882903</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1920,28 +1920,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>79.18841408502674</v>
       </c>
       <c r="I18" t="n">
-        <v>68.03870791522236</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,19 +1968,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
@@ -1989,7 +1989,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>99.78974769572879</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2044,10 +2044,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>64.0297007843443</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2062,10 +2062,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>96.06064116356413</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2081,10 +2081,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2132,22 +2132,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>135.9515688379225</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>269.9071292610987</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2157,28 +2157,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>89.26542836574299</v>
       </c>
       <c r="D21" t="n">
-        <v>15.93666552945187</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,13 +2208,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2223,10 +2223,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>106.9147497326712</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2290,10 +2290,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>98.68313739545452</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2305,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2315,10 +2315,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>38.2370658625693</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2327,10 +2327,10 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>394.2166340668265</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="G23" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2369,16 +2369,16 @@
         <v>195.5929138346465</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2394,13 +2394,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2409,7 +2409,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2445,13 +2445,13 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>116.807772212572</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9206407878966</v>
+        <v>191.9638931116303</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -2533,13 +2533,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>99.78974769572881</v>
+        <v>73.36175976093783</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>38.92321710192636</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2600,19 +2600,19 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>140.979167903347</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2631,16 +2631,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2691,13 +2691,13 @@
         <v>225.9206407878966</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>211.0070318423027</v>
       </c>
       <c r="W27" t="n">
-        <v>101.4751272368206</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -2722,13 +2722,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>12.35168551462431</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2755,10 +2755,10 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>64.0297007843443</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.332058976593647</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2770,7 +2770,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2792,19 +2792,19 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>104.1189927826356</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>398.067884730307</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2852,13 +2852,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2871,16 +2871,16 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>1.980238481465098</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>137.0282495084215</v>
@@ -2889,7 +2889,7 @@
         <v>109.1906224126114</v>
       </c>
       <c r="I30" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2919,10 +2919,10 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>134.757822770127</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T30" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>225.9206407878966</v>
@@ -2934,7 +2934,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2992,13 +2992,13 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>64.0297007843443</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>165.4090611368575</v>
+        <v>106.0890042129126</v>
       </c>
       <c r="S31" t="n">
-        <v>96.06064116356413</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3026,13 +3026,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3041,13 +3041,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>168.0120963982004</v>
+        <v>142.4984704850175</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3074,16 +3074,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S32" t="n">
         <v>195.5929138346465</v>
       </c>
       <c r="T32" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3095,7 +3095,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3108,10 +3108,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -3123,10 +3123,10 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>41.82758137813416</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3159,13 +3159,13 @@
         <v>165.8272126914158</v>
       </c>
       <c r="T33" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V33" t="n">
-        <v>60.04328876407759</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
@@ -3229,13 +3229,13 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>96.06064116356384</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3250,10 +3250,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>99.78974769572881</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3263,16 +3263,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>91.1162517976238</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3323,16 +3323,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>102.984488463157</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3348,10 +3348,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>135.6484690073564</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -3360,10 +3360,10 @@
         <v>137.0282495084215</v>
       </c>
       <c r="H36" t="n">
-        <v>109.1906224126114</v>
+        <v>102.1739572327152</v>
       </c>
       <c r="I36" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3393,16 +3393,16 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>225.9206407878966</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -3411,7 +3411,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3421,13 +3421,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>9.637108967925709</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3439,7 +3439,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>106.9147497326712</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3490,7 +3490,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>117.3450705775786</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3512,7 +3512,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S38" t="n">
-        <v>195.5929138346465</v>
+        <v>107.2227608773064</v>
       </c>
       <c r="T38" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.2985142370684</v>
@@ -3563,10 +3563,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3579,10 +3579,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>55.94739082400733</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -3591,16 +3591,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>109.1906224126114</v>
+        <v>34.31881265622914</v>
       </c>
       <c r="I39" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3639,7 +3639,7 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
@@ -3682,7 +3682,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>74.67247646141475</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3703,19 +3703,19 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>64.02970078434429</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>21.38816470214942</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.3046124576955</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3727,7 +3727,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>39.19479062707046</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3749,16 +3749,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>405.7415719969023</v>
+        <v>358.7155685428904</v>
       </c>
       <c r="H41" t="n">
-        <v>234.15366800839</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,7 +3791,7 @@
         <v>195.5929138346465</v>
       </c>
       <c r="T41" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3831,13 +3831,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>137.0282495084215</v>
+        <v>122.0501874122705</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3867,10 +3867,10 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -3879,13 +3879,13 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>204.909387741435</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3916,7 +3916,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3940,19 +3940,19 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>64.02970078434429</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>113.9677442423409</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3046124576955</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>39.19479062707046</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3983,16 +3983,16 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>29.6059370824006</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>333.4403157157206</v>
+        <v>147.9405433882875</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4022,7 +4022,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S44" t="n">
         <v>195.5929138346465</v>
@@ -4031,19 +4031,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4053,7 +4053,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -4065,16 +4065,16 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>73.69262803086001</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>126.7168598851648</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,10 +4101,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>198.8939788055617</v>
@@ -4113,7 +4113,7 @@
         <v>225.9206407878966</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>251.6949831609196</v>
@@ -4122,7 +4122,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>106.9147497326712</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4183,10 +4183,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>98.68313739545469</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4201,7 +4201,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>790.6398109613051</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="C3" t="n">
-        <v>790.6398109613051</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D3" t="n">
-        <v>668.2068788942177</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E3" t="n">
-        <v>508.9694238887622</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F3" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G3" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I3" t="n">
         <v>20.03527576299844</v>
@@ -4413,19 +4413,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>249.2442489785619</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M3" t="n">
-        <v>473.4149733950735</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N3" t="n">
-        <v>712.019119383956</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4446,13 +4446,13 @@
         <v>790.6398109613051</v>
       </c>
       <c r="W3" t="n">
-        <v>790.6398109613051</v>
+        <v>778.3154410346802</v>
       </c>
       <c r="X3" t="n">
-        <v>790.6398109613051</v>
+        <v>570.4639408291474</v>
       </c>
       <c r="Y3" t="n">
-        <v>790.6398109613051</v>
+        <v>362.7036420641935</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4504,34 +4504,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>569.2254314512334</v>
+      </c>
+      <c r="C5" t="n">
+        <v>569.2254314512334</v>
+      </c>
+      <c r="D5" t="n">
+        <v>569.2254314512334</v>
+      </c>
+      <c r="E5" t="n">
+        <v>569.2254314512334</v>
+      </c>
+      <c r="F5" t="n">
+        <v>325.7766548071333</v>
+      </c>
+      <c r="G5" t="n">
         <v>82.32787816303323</v>
-      </c>
-      <c r="C5" t="n">
-        <v>82.32787816303323</v>
-      </c>
-      <c r="D5" t="n">
-        <v>82.32787816303323</v>
-      </c>
-      <c r="E5" t="n">
-        <v>82.32787816303323</v>
-      </c>
-      <c r="F5" t="n">
-        <v>75.38237741382976</v>
-      </c>
-      <c r="G5" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
         <v>19.28114311021272</v>
@@ -4607,10 +4607,10 @@
         <v>812.6742080953335</v>
       </c>
       <c r="X5" t="n">
-        <v>569.2254314512334</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="Y5" t="n">
-        <v>325.7766548071333</v>
+        <v>812.6742080953335</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="C6" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="D6" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E6" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F6" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G6" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H6" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4647,22 +4647,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>257.8852890990952</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N6" t="n">
-        <v>496.4894350879777</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O6" t="n">
-        <v>735.0935810768601</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
-        <v>917.7370586902109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4671,25 +4671,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T6" t="n">
-        <v>862.8876260635219</v>
+        <v>525.9467038763287</v>
       </c>
       <c r="U6" t="n">
-        <v>634.6640077999109</v>
+        <v>525.9467038763287</v>
       </c>
       <c r="V6" t="n">
-        <v>435.6470747334852</v>
+        <v>525.9467038763287</v>
       </c>
       <c r="W6" t="n">
-        <v>435.6470747334852</v>
+        <v>525.9467038763287</v>
       </c>
       <c r="X6" t="n">
-        <v>227.7955745279523</v>
+        <v>318.0952036707959</v>
       </c>
       <c r="Y6" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4741,34 +4741,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>506.1786963984129</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="C8" t="n">
-        <v>506.1786963984129</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="D8" t="n">
-        <v>506.1786963984129</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="E8" t="n">
-        <v>506.1786963984129</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="F8" t="n">
-        <v>262.7299197543128</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4826,28 +4826,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W8" t="n">
-        <v>710.516763498309</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X8" t="n">
-        <v>506.1786963984129</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y8" t="n">
-        <v>506.1786963984129</v>
+        <v>802.5825927271064</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>369.484465818592</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C9" t="n">
-        <v>369.484465818592</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D9" t="n">
-        <v>369.484465818592</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>369.484465818592</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
         <v>19.28114311021272</v>
@@ -4884,16 +4884,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>473.4149733950735</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O9" t="n">
         <v>712.019119383956</v>
@@ -4905,28 +4905,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T9" t="n">
-        <v>761.8705608694022</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U9" t="n">
-        <v>533.6469426057913</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V9" t="n">
-        <v>369.484465818592</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="W9" t="n">
-        <v>369.484465818592</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X9" t="n">
-        <v>369.484465818592</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y9" t="n">
-        <v>369.484465818592</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -5002,10 +5002,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1378.603698709343</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C11" t="n">
-        <v>1378.603698709343</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D11" t="n">
-        <v>1378.603698709343</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E11" t="n">
-        <v>1378.603698709343</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F11" t="n">
-        <v>968.7637269953007</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G11" t="n">
-        <v>558.9237552812579</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H11" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I11" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J11" t="n">
         <v>70.13987180521508</v>
       </c>
       <c r="K11" t="n">
-        <v>247.3580469011319</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L11" t="n">
         <v>519.4894913528326</v>
@@ -5063,28 +5063,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R11" t="n">
-        <v>1508.970645214178</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S11" t="n">
-        <v>1378.603698709343</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="T11" t="n">
-        <v>1378.603698709343</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="U11" t="n">
-        <v>1378.603698709343</v>
+        <v>834.8212426942227</v>
       </c>
       <c r="V11" t="n">
-        <v>1378.603698709343</v>
+        <v>503.7583553506521</v>
       </c>
       <c r="W11" t="n">
-        <v>1378.603698709343</v>
+        <v>150.9897000805379</v>
       </c>
       <c r="X11" t="n">
-        <v>1378.603698709343</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y11" t="n">
-        <v>1378.603698709343</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>39.95955255904721</v>
+        <v>536.9689116288023</v>
       </c>
       <c r="C12" t="n">
-        <v>39.95955255904721</v>
+        <v>536.9689116288023</v>
       </c>
       <c r="D12" t="n">
-        <v>39.95955255904721</v>
+        <v>536.9689116288023</v>
       </c>
       <c r="E12" t="n">
-        <v>39.95955255904721</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="F12" t="n">
-        <v>39.95955255904721</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="G12" t="n">
-        <v>32.45932575975219</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H12" t="n">
-        <v>32.45932575975219</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I12" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J12" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K12" t="n">
-        <v>32.45932575975219</v>
+        <v>208.2166101768439</v>
       </c>
       <c r="L12" t="n">
-        <v>147.3709770270845</v>
+        <v>256.6067387278472</v>
       </c>
       <c r="M12" t="n">
-        <v>546.7891136313475</v>
+        <v>656.0248753321102</v>
       </c>
       <c r="N12" t="n">
-        <v>948.4732699082808</v>
+        <v>1057.709031609043</v>
       </c>
       <c r="O12" t="n">
-        <v>1271.486777082839</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P12" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q12" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R12" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S12" t="n">
-        <v>1374.066492846507</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T12" t="n">
-        <v>1173.163483952</v>
+        <v>1254.561044051268</v>
       </c>
       <c r="U12" t="n">
-        <v>944.9608164894784</v>
+        <v>1026.358376588747</v>
       </c>
       <c r="V12" t="n">
-        <v>709.8087082577356</v>
+        <v>791.2062683570039</v>
       </c>
       <c r="W12" t="n">
-        <v>455.571351529534</v>
+        <v>536.9689116288023</v>
       </c>
       <c r="X12" t="n">
-        <v>247.7198513240011</v>
+        <v>536.9689116288023</v>
       </c>
       <c r="Y12" t="n">
-        <v>39.95955255904721</v>
+        <v>536.9689116288023</v>
       </c>
     </row>
     <row r="13">
@@ -5173,34 +5173,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C13" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D13" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E13" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F13" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G13" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H13" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I13" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J13" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K13" t="n">
-        <v>40.81344334191285</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L13" t="n">
         <v>107.0302722280248</v>
@@ -5224,25 +5224,25 @@
         <v>129.490276430019</v>
       </c>
       <c r="S13" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="T13" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="U13" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="V13" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="W13" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="X13" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y13" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>32.45932575975218</v>
+        <v>980.3391580376307</v>
       </c>
       <c r="C14" t="n">
-        <v>32.45932575975218</v>
+        <v>980.3391580376307</v>
       </c>
       <c r="D14" t="n">
-        <v>32.45932575975218</v>
+        <v>622.0734594308801</v>
       </c>
       <c r="E14" t="n">
-        <v>32.45932575975218</v>
+        <v>622.0734594308801</v>
       </c>
       <c r="F14" t="n">
-        <v>32.45932575975218</v>
+        <v>212.2334877168373</v>
       </c>
       <c r="G14" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H14" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I14" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J14" t="n">
         <v>70.13987180521508</v>
       </c>
       <c r="K14" t="n">
-        <v>247.3580469011318</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L14" t="n">
         <v>519.4894913528326</v>
@@ -5300,28 +5300,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R14" t="n">
-        <v>1600.23855416748</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="S14" t="n">
-        <v>1402.669954334504</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="T14" t="n">
-        <v>1402.669954334504</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="U14" t="n">
-        <v>1148.833071266758</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="V14" t="n">
-        <v>1148.833071266758</v>
+        <v>980.3391580376307</v>
       </c>
       <c r="W14" t="n">
-        <v>796.0644159966438</v>
+        <v>980.3391580376307</v>
       </c>
       <c r="X14" t="n">
-        <v>422.5986577355639</v>
+        <v>980.3391580376307</v>
       </c>
       <c r="Y14" t="n">
-        <v>32.45932575975218</v>
+        <v>980.3391580376307</v>
       </c>
     </row>
     <row r="15">
@@ -5331,49 +5331,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>800.0311509215306</v>
+        <v>709.8087082577356</v>
       </c>
       <c r="C15" t="n">
-        <v>625.5781216404037</v>
+        <v>709.8087082577356</v>
       </c>
       <c r="D15" t="n">
-        <v>476.6437119791524</v>
+        <v>666.272646544556</v>
       </c>
       <c r="E15" t="n">
-        <v>317.4062569736969</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="F15" t="n">
-        <v>170.8716990005819</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="G15" t="n">
-        <v>32.45932575975218</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H15" t="n">
-        <v>32.45932575975218</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I15" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J15" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K15" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="L15" t="n">
-        <v>147.3709770270844</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M15" t="n">
-        <v>546.7891136313474</v>
+        <v>729.6092173456784</v>
       </c>
       <c r="N15" t="n">
-        <v>948.4732699082806</v>
+        <v>1057.709031609044</v>
       </c>
       <c r="O15" t="n">
-        <v>1271.486777082839</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P15" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q15" t="n">
         <v>1622.966287987609</v>
@@ -5388,19 +5388,19 @@
         <v>1173.163483952</v>
       </c>
       <c r="U15" t="n">
-        <v>1173.163483952</v>
+        <v>944.9608164894784</v>
       </c>
       <c r="V15" t="n">
-        <v>1173.163483952</v>
+        <v>709.8087082577356</v>
       </c>
       <c r="W15" t="n">
-        <v>1173.163483952</v>
+        <v>709.8087082577356</v>
       </c>
       <c r="X15" t="n">
-        <v>1173.163483952</v>
+        <v>709.8087082577356</v>
       </c>
       <c r="Y15" t="n">
-        <v>968.2464879415986</v>
+        <v>709.8087082577356</v>
       </c>
     </row>
     <row r="16">
@@ -5410,34 +5410,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>296.5701361642185</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C16" t="n">
-        <v>296.5701361642185</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D16" t="n">
-        <v>296.5701361642185</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E16" t="n">
-        <v>296.5701361642185</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F16" t="n">
-        <v>296.5701361642185</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G16" t="n">
-        <v>296.5701361642185</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H16" t="n">
-        <v>256.8779464865154</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I16" t="n">
-        <v>107.8860696601711</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J16" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K16" t="n">
-        <v>40.81344334191284</v>
+        <v>40.81344334191285</v>
       </c>
       <c r="L16" t="n">
         <v>107.0302722280248</v>
@@ -5458,28 +5458,28 @@
         <v>296.5701361642185</v>
       </c>
       <c r="R16" t="n">
-        <v>296.5701361642185</v>
+        <v>129.490276430019</v>
       </c>
       <c r="S16" t="n">
-        <v>296.5701361642185</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="T16" t="n">
-        <v>296.5701361642185</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="U16" t="n">
-        <v>296.5701361642185</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="V16" t="n">
-        <v>296.5701361642185</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="W16" t="n">
-        <v>296.5701361642185</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="X16" t="n">
-        <v>296.5701361642185</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="Y16" t="n">
-        <v>296.5701361642185</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="17">
@@ -5498,31 +5498,31 @@
         <v>1264.700589380859</v>
       </c>
       <c r="E17" t="n">
-        <v>878.9123367826144</v>
+        <v>878.9123367826146</v>
       </c>
       <c r="F17" t="n">
-        <v>469.0723650685716</v>
+        <v>469.0723650685718</v>
       </c>
       <c r="G17" t="n">
-        <v>59.23239335452888</v>
+        <v>59.23239335452899</v>
       </c>
       <c r="H17" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I17" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J17" t="n">
-        <v>70.13987180521507</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K17" t="n">
-        <v>247.3580469011319</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L17" t="n">
         <v>519.4894913528326</v>
       </c>
       <c r="M17" t="n">
-        <v>838.8947028941453</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N17" t="n">
         <v>1148.836227140252</v>
@@ -5568,43 +5568,43 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>247.7198513240009</v>
+        <v>784.901795268853</v>
       </c>
       <c r="C18" t="n">
-        <v>247.7198513240009</v>
+        <v>784.901795268853</v>
       </c>
       <c r="D18" t="n">
-        <v>247.7198513240009</v>
+        <v>635.9673856076017</v>
       </c>
       <c r="E18" t="n">
-        <v>247.7198513240009</v>
+        <v>476.7299306021462</v>
       </c>
       <c r="F18" t="n">
-        <v>101.1852933508859</v>
+        <v>330.1953726290312</v>
       </c>
       <c r="G18" t="n">
-        <v>101.1852933508859</v>
+        <v>191.7829993882015</v>
       </c>
       <c r="H18" t="n">
-        <v>101.1852933508859</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I18" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J18" t="n">
-        <v>32.45932575975218</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="K18" t="n">
-        <v>208.2166101768439</v>
+        <v>236.9655055809358</v>
       </c>
       <c r="L18" t="n">
-        <v>505.948365158507</v>
+        <v>534.697260562599</v>
       </c>
       <c r="M18" t="n">
-        <v>546.7891136313474</v>
+        <v>546.7891136313475</v>
       </c>
       <c r="N18" t="n">
-        <v>948.4732699082806</v>
+        <v>948.4732699082808</v>
       </c>
       <c r="O18" t="n">
         <v>1271.486777082839</v>
@@ -5616,28 +5616,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R18" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S18" t="n">
-        <v>1374.066492846507</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T18" t="n">
-        <v>1173.163483952</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U18" t="n">
-        <v>944.9608164894781</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V18" t="n">
-        <v>709.8087082577354</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W18" t="n">
-        <v>455.5713515295337</v>
+        <v>1368.728931259408</v>
       </c>
       <c r="X18" t="n">
-        <v>247.7198513240009</v>
+        <v>1160.877431053875</v>
       </c>
       <c r="Y18" t="n">
-        <v>247.7198513240009</v>
+        <v>953.1171322889211</v>
       </c>
     </row>
     <row r="19">
@@ -5647,34 +5647,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C19" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D19" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E19" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F19" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G19" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H19" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I19" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J19" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K19" t="n">
-        <v>40.81344334191284</v>
+        <v>40.81344334191285</v>
       </c>
       <c r="L19" t="n">
         <v>107.0302722280248</v>
@@ -5692,31 +5692,31 @@
         <v>361.2466016029501</v>
       </c>
       <c r="Q19" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R19" t="n">
-        <v>129.490276430019</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S19" t="n">
-        <v>129.490276430019</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T19" t="n">
-        <v>129.490276430019</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U19" t="n">
-        <v>129.490276430019</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V19" t="n">
-        <v>129.490276430019</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W19" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X19" t="n">
-        <v>32.45932575975218</v>
+        <v>133.2570507049328</v>
       </c>
       <c r="Y19" t="n">
-        <v>32.45932575975218</v>
+        <v>133.2570507049328</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1096.495941019763</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="C20" t="n">
-        <v>727.5334240793518</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="D20" t="n">
         <v>369.2677254726013</v>
@@ -5744,58 +5744,58 @@
         <v>369.2677254726013</v>
       </c>
       <c r="H20" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I20" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J20" t="n">
         <v>70.13987180521508</v>
       </c>
       <c r="K20" t="n">
-        <v>247.3580469011318</v>
+        <v>247.358046901132</v>
       </c>
       <c r="L20" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528328</v>
       </c>
       <c r="M20" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941459</v>
       </c>
       <c r="N20" t="n">
         <v>1148.836227140252</v>
       </c>
       <c r="O20" t="n">
-        <v>1396.31758174832</v>
+        <v>1396.317581748321</v>
       </c>
       <c r="P20" t="n">
         <v>1569.862809315274</v>
       </c>
       <c r="Q20" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R20" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S20" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="T20" t="n">
-        <v>1622.966287987609</v>
+        <v>1485.641470979607</v>
       </c>
       <c r="U20" t="n">
-        <v>1369.129404919863</v>
+        <v>1485.641470979607</v>
       </c>
       <c r="V20" t="n">
-        <v>1096.495941019763</v>
+        <v>1485.641470979607</v>
       </c>
       <c r="W20" t="n">
-        <v>1096.495941019763</v>
+        <v>1132.872815709493</v>
       </c>
       <c r="X20" t="n">
-        <v>1096.495941019763</v>
+        <v>759.4070574484131</v>
       </c>
       <c r="Y20" t="n">
-        <v>1096.495941019763</v>
+        <v>369.2677254726013</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>382.247451995276</v>
+        <v>905.3741555651436</v>
       </c>
       <c r="C21" t="n">
-        <v>207.794422714149</v>
+        <v>815.2070562058072</v>
       </c>
       <c r="D21" t="n">
-        <v>191.6967807652077</v>
+        <v>666.272646544556</v>
       </c>
       <c r="E21" t="n">
-        <v>32.45932575975218</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="F21" t="n">
-        <v>32.45932575975218</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="G21" t="n">
-        <v>32.45932575975218</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H21" t="n">
-        <v>32.45932575975218</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I21" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J21" t="n">
-        <v>61.20822116384403</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="K21" t="n">
-        <v>61.20822116384403</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="L21" t="n">
-        <v>256.6067387278472</v>
+        <v>358.9399761455072</v>
       </c>
       <c r="M21" t="n">
-        <v>656.0248753321102</v>
+        <v>546.7891136313476</v>
       </c>
       <c r="N21" t="n">
-        <v>1057.709031609043</v>
+        <v>948.4732699082811</v>
       </c>
       <c r="O21" t="n">
-        <v>1380.722538783602</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P21" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286847</v>
       </c>
       <c r="Q21" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R21" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S21" t="n">
-        <v>1455.464052945775</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="T21" t="n">
-        <v>1455.464052945775</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="U21" t="n">
-        <v>1455.464052945775</v>
+        <v>1394.763620525088</v>
       </c>
       <c r="V21" t="n">
-        <v>1220.311944714032</v>
+        <v>1159.611512293345</v>
       </c>
       <c r="W21" t="n">
-        <v>966.0745879858307</v>
+        <v>905.3741555651436</v>
       </c>
       <c r="X21" t="n">
-        <v>758.2230877802979</v>
+        <v>905.3741555651436</v>
       </c>
       <c r="Y21" t="n">
-        <v>550.462789015344</v>
+        <v>905.3741555651436</v>
       </c>
     </row>
     <row r="22">
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1294.179012144411</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="C22" t="n">
-        <v>1294.179012144411</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="D22" t="n">
-        <v>1294.179012144411</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="E22" t="n">
-        <v>1294.179012144411</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="F22" t="n">
-        <v>1294.179012144411</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="G22" t="n">
-        <v>1294.179012144411</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="H22" t="n">
-        <v>1294.179012144411</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="I22" t="n">
-        <v>1294.179012144411</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="J22" t="n">
-        <v>1294.179012144411</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="K22" t="n">
         <v>1302.533129726572</v>
@@ -5926,34 +5926,34 @@
         <v>1594.013114755733</v>
       </c>
       <c r="P22" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="Q22" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R22" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S22" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="T22" t="n">
-        <v>1622.966287987609</v>
+        <v>1393.858948907497</v>
       </c>
       <c r="U22" t="n">
-        <v>1622.966287987609</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="V22" t="n">
-        <v>1622.966287987609</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="W22" t="n">
-        <v>1622.966287987609</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="X22" t="n">
-        <v>1622.966287987609</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="Y22" t="n">
-        <v>1402.173708844079</v>
+        <v>1294.179012144412</v>
       </c>
     </row>
     <row r="23">
@@ -5963,31 +5963,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>840.4979177433166</v>
+        <v>811.2618144142068</v>
       </c>
       <c r="C23" t="n">
-        <v>840.4979177433166</v>
+        <v>442.299297473795</v>
       </c>
       <c r="D23" t="n">
-        <v>840.4979177433166</v>
+        <v>442.299297473795</v>
       </c>
       <c r="E23" t="n">
-        <v>840.4979177433166</v>
+        <v>442.299297473795</v>
       </c>
       <c r="F23" t="n">
-        <v>442.2992974737949</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G23" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H23" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I23" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J23" t="n">
-        <v>70.13987180521507</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K23" t="n">
         <v>247.3580469011319</v>
@@ -6017,22 +6017,22 @@
         <v>1425.397688154633</v>
       </c>
       <c r="T23" t="n">
-        <v>1425.397688154633</v>
+        <v>1202.653768535401</v>
       </c>
       <c r="U23" t="n">
-        <v>1171.560805086887</v>
+        <v>1202.653768535401</v>
       </c>
       <c r="V23" t="n">
-        <v>840.4979177433166</v>
+        <v>1202.653768535401</v>
       </c>
       <c r="W23" t="n">
-        <v>840.4979177433166</v>
+        <v>849.8851132652869</v>
       </c>
       <c r="X23" t="n">
-        <v>840.4979177433166</v>
+        <v>849.8851132652869</v>
       </c>
       <c r="Y23" t="n">
-        <v>840.4979177433166</v>
+        <v>849.8851132652869</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>170.8716990005819</v>
+        <v>355.8467647021305</v>
       </c>
       <c r="C24" t="n">
-        <v>170.8716990005819</v>
+        <v>181.3937354210034</v>
       </c>
       <c r="D24" t="n">
-        <v>170.8716990005819</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E24" t="n">
-        <v>170.8716990005819</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F24" t="n">
-        <v>170.8716990005819</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G24" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H24" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I24" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J24" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K24" t="n">
-        <v>236.9655055809357</v>
+        <v>208.2166101768439</v>
       </c>
       <c r="L24" t="n">
-        <v>534.6972605625989</v>
+        <v>505.9483651585071</v>
       </c>
       <c r="M24" t="n">
-        <v>934.1153971668618</v>
+        <v>898.2686245361181</v>
       </c>
       <c r="N24" t="n">
-        <v>1335.799553443795</v>
+        <v>1299.952780813052</v>
       </c>
       <c r="O24" t="n">
-        <v>1380.722538783602</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="P24" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="Q24" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R24" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S24" t="n">
-        <v>1504.978639288041</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="T24" t="n">
-        <v>1304.075630393535</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="U24" t="n">
-        <v>1075.872962931013</v>
+        <v>1429.063365652629</v>
       </c>
       <c r="V24" t="n">
-        <v>840.7208546992704</v>
+        <v>1193.911257420887</v>
       </c>
       <c r="W24" t="n">
-        <v>586.4834979710687</v>
+        <v>939.6739006926853</v>
       </c>
       <c r="X24" t="n">
-        <v>378.6319977655359</v>
+        <v>731.8224004871524</v>
       </c>
       <c r="Y24" t="n">
-        <v>170.8716990005819</v>
+        <v>524.0621017221986</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="C25" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="D25" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="E25" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="F25" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="G25" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="H25" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="I25" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="J25" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="K25" t="n">
-        <v>40.81344334191284</v>
+        <v>1302.533129726572</v>
       </c>
       <c r="L25" t="n">
-        <v>107.0302722280248</v>
+        <v>1368.749958612684</v>
       </c>
       <c r="M25" t="n">
-        <v>187.235757098444</v>
+        <v>1448.955443483103</v>
       </c>
       <c r="N25" t="n">
-        <v>270.9687512285709</v>
+        <v>1532.68843761323</v>
       </c>
       <c r="O25" t="n">
-        <v>332.2934283710737</v>
+        <v>1594.013114755733</v>
       </c>
       <c r="P25" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="Q25" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R25" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S25" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="T25" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="U25" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="V25" t="n">
-        <v>361.2466016029501</v>
+        <v>1368.281799781723</v>
       </c>
       <c r="W25" t="n">
-        <v>260.4488766577695</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="X25" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="Y25" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144412</v>
       </c>
     </row>
     <row r="26">
@@ -6200,40 +6200,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>558.9237552812577</v>
+        <v>1236.366447923488</v>
       </c>
       <c r="C26" t="n">
-        <v>558.9237552812577</v>
+        <v>867.403930983076</v>
       </c>
       <c r="D26" t="n">
-        <v>558.9237552812577</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="E26" t="n">
-        <v>558.9237552812577</v>
+        <v>442.299297473795</v>
       </c>
       <c r="F26" t="n">
-        <v>558.9237552812577</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G26" t="n">
-        <v>558.9237552812577</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H26" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I26" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J26" t="n">
         <v>70.13987180521508</v>
       </c>
       <c r="K26" t="n">
-        <v>247.3580469011318</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L26" t="n">
         <v>519.4894913528326</v>
       </c>
       <c r="M26" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941458</v>
       </c>
       <c r="N26" t="n">
         <v>1148.836227140252</v>
@@ -6248,28 +6248,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R26" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S26" t="n">
-        <v>1366.567445311807</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T26" t="n">
-        <v>1143.823525692574</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U26" t="n">
-        <v>889.9866426248284</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V26" t="n">
-        <v>558.9237552812577</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W26" t="n">
-        <v>558.9237552812577</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X26" t="n">
-        <v>558.9237552812577</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Y26" t="n">
-        <v>558.9237552812577</v>
+        <v>1622.966287987609</v>
       </c>
     </row>
     <row r="27">
@@ -6279,43 +6279,43 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>191.6967807652077</v>
+        <v>355.8467647021305</v>
       </c>
       <c r="C27" t="n">
-        <v>191.6967807652077</v>
+        <v>181.3937354210034</v>
       </c>
       <c r="D27" t="n">
-        <v>191.6967807652077</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E27" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F27" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G27" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H27" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I27" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J27" t="n">
-        <v>61.20822116384403</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="K27" t="n">
-        <v>61.20822116384403</v>
+        <v>236.9655055809358</v>
       </c>
       <c r="L27" t="n">
-        <v>358.9399761455072</v>
+        <v>534.697260562599</v>
       </c>
       <c r="M27" t="n">
-        <v>656.0248753321102</v>
+        <v>934.1153971668621</v>
       </c>
       <c r="N27" t="n">
-        <v>1057.709031609043</v>
+        <v>1335.799553443796</v>
       </c>
       <c r="O27" t="n">
         <v>1380.722538783602</v>
@@ -6336,19 +6336,19 @@
         <v>1173.163483952</v>
       </c>
       <c r="U27" t="n">
-        <v>944.9608164894781</v>
+        <v>944.9608164894784</v>
       </c>
       <c r="V27" t="n">
-        <v>709.8087082577354</v>
+        <v>731.8224004871524</v>
       </c>
       <c r="W27" t="n">
-        <v>607.3085797356944</v>
+        <v>731.8224004871524</v>
       </c>
       <c r="X27" t="n">
-        <v>399.4570795301616</v>
+        <v>731.8224004871524</v>
       </c>
       <c r="Y27" t="n">
-        <v>191.6967807652077</v>
+        <v>524.0621017221986</v>
       </c>
     </row>
     <row r="28">
@@ -6358,34 +6358,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="C28" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="D28" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="E28" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="F28" t="n">
-        <v>32.45932575975218</v>
+        <v>214.3566541050398</v>
       </c>
       <c r="G28" t="n">
-        <v>32.45932575975218</v>
+        <v>44.93577577452422</v>
       </c>
       <c r="H28" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I28" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J28" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K28" t="n">
-        <v>40.81344334191284</v>
+        <v>40.81344334191285</v>
       </c>
       <c r="L28" t="n">
         <v>107.0302722280248</v>
@@ -6403,31 +6403,31 @@
         <v>361.2466016029501</v>
       </c>
       <c r="Q28" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R28" t="n">
-        <v>287.1438139656391</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S28" t="n">
-        <v>287.1438139656391</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T28" t="n">
-        <v>287.1438139656391</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U28" t="n">
-        <v>287.1438139656391</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V28" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W28" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X28" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Y28" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
     </row>
     <row r="29">
@@ -6437,31 +6437,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>506.5925424806039</v>
+        <v>1202.653768535401</v>
       </c>
       <c r="C29" t="n">
-        <v>137.6300255401922</v>
+        <v>1202.653768535401</v>
       </c>
       <c r="D29" t="n">
-        <v>137.6300255401922</v>
+        <v>844.3880699286506</v>
       </c>
       <c r="E29" t="n">
-        <v>32.45932575975218</v>
+        <v>844.3880699286506</v>
       </c>
       <c r="F29" t="n">
-        <v>32.45932575975218</v>
+        <v>442.299297473795</v>
       </c>
       <c r="G29" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H29" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I29" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J29" t="n">
-        <v>70.13987180521507</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K29" t="n">
         <v>247.3580469011319</v>
@@ -6488,25 +6488,25 @@
         <v>1622.96628798761</v>
       </c>
       <c r="S29" t="n">
-        <v>1622.96628798761</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="T29" t="n">
-        <v>1622.96628798761</v>
+        <v>1202.653768535401</v>
       </c>
       <c r="U29" t="n">
-        <v>1622.96628798761</v>
+        <v>1202.653768535401</v>
       </c>
       <c r="V29" t="n">
-        <v>1622.96628798761</v>
+        <v>1202.653768535401</v>
       </c>
       <c r="W29" t="n">
-        <v>1270.197632717495</v>
+        <v>1202.653768535401</v>
       </c>
       <c r="X29" t="n">
-        <v>896.7318744564157</v>
+        <v>1202.653768535401</v>
       </c>
       <c r="Y29" t="n">
-        <v>506.5925424806039</v>
+        <v>1202.653768535401</v>
       </c>
     </row>
     <row r="30">
@@ -6516,49 +6516,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>360.5006335659854</v>
+        <v>737.8719205233092</v>
       </c>
       <c r="C30" t="n">
-        <v>360.5006335659854</v>
+        <v>735.8716796329404</v>
       </c>
       <c r="D30" t="n">
-        <v>360.5006335659854</v>
+        <v>586.9372699716891</v>
       </c>
       <c r="E30" t="n">
-        <v>360.5006335659854</v>
+        <v>427.6998149662337</v>
       </c>
       <c r="F30" t="n">
-        <v>360.5006335659854</v>
+        <v>281.1652569931187</v>
       </c>
       <c r="G30" t="n">
-        <v>222.0882603251556</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="H30" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I30" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J30" t="n">
-        <v>61.20822116384403</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="K30" t="n">
-        <v>61.20822116384403</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="L30" t="n">
-        <v>256.6067387278472</v>
+        <v>358.9399761455072</v>
       </c>
       <c r="M30" t="n">
-        <v>656.0248753321102</v>
+        <v>758.3581127497703</v>
       </c>
       <c r="N30" t="n">
-        <v>1057.709031609043</v>
+        <v>1160.042269026704</v>
       </c>
       <c r="O30" t="n">
-        <v>1380.722538783602</v>
+        <v>1483.055776201262</v>
       </c>
       <c r="P30" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q30" t="n">
         <v>1622.966287987609</v>
@@ -6567,25 +6567,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S30" t="n">
-        <v>1486.847275088491</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T30" t="n">
-        <v>1285.944266193984</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="U30" t="n">
-        <v>1057.741598731463</v>
+        <v>1227.261385483253</v>
       </c>
       <c r="V30" t="n">
-        <v>822.5894904997199</v>
+        <v>992.1092772515108</v>
       </c>
       <c r="W30" t="n">
-        <v>568.3521337715182</v>
+        <v>737.8719205233092</v>
       </c>
       <c r="X30" t="n">
-        <v>360.5006335659854</v>
+        <v>737.8719205233092</v>
       </c>
       <c r="Y30" t="n">
-        <v>360.5006335659854</v>
+        <v>737.8719205233092</v>
       </c>
     </row>
     <row r="31">
@@ -6595,34 +6595,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C31" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D31" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E31" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F31" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G31" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H31" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I31" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J31" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K31" t="n">
-        <v>40.81344334191284</v>
+        <v>40.81344334191285</v>
       </c>
       <c r="L31" t="n">
         <v>107.0302722280248</v>
@@ -6640,31 +6640,31 @@
         <v>361.2466016029501</v>
       </c>
       <c r="Q31" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R31" t="n">
-        <v>129.490276430019</v>
+        <v>254.0859912868768</v>
       </c>
       <c r="S31" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="T31" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="U31" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="V31" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="W31" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="X31" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="Y31" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="32">
@@ -6674,31 +6674,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>948.8168854676546</v>
+        <v>534.6628733412679</v>
       </c>
       <c r="C32" t="n">
-        <v>948.8168854676546</v>
+        <v>534.6628733412679</v>
       </c>
       <c r="D32" t="n">
-        <v>948.8168854676546</v>
+        <v>176.3971747345174</v>
       </c>
       <c r="E32" t="n">
-        <v>948.8168854676546</v>
+        <v>176.3971747345174</v>
       </c>
       <c r="F32" t="n">
-        <v>948.8168854676546</v>
+        <v>176.3971747345174</v>
       </c>
       <c r="G32" t="n">
-        <v>538.9769137536118</v>
+        <v>176.3971747345174</v>
       </c>
       <c r="H32" t="n">
-        <v>202.1685140407627</v>
+        <v>176.3971747345174</v>
       </c>
       <c r="I32" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J32" t="n">
-        <v>70.13987180521505</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K32" t="n">
         <v>247.3580469011319</v>
@@ -6713,37 +6713,37 @@
         <v>1148.836227140252</v>
       </c>
       <c r="O32" t="n">
-        <v>1396.31758174832</v>
+        <v>1396.317581748321</v>
       </c>
       <c r="P32" t="n">
         <v>1569.862809315274</v>
       </c>
       <c r="Q32" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R32" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="S32" t="n">
-        <v>1425.397688154633</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="T32" t="n">
-        <v>1202.653768535401</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="U32" t="n">
-        <v>948.8168854676546</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="V32" t="n">
-        <v>948.8168854676546</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="W32" t="n">
-        <v>948.8168854676546</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="X32" t="n">
-        <v>948.8168854676546</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="Y32" t="n">
-        <v>948.8168854676546</v>
+        <v>921.2627134053896</v>
       </c>
     </row>
     <row r="33">
@@ -6753,34 +6753,34 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>355.8467647021305</v>
+        <v>154.0447845327544</v>
       </c>
       <c r="C33" t="n">
-        <v>181.3937354210034</v>
+        <v>154.0447845327544</v>
       </c>
       <c r="D33" t="n">
-        <v>32.45932575975218</v>
+        <v>154.0447845327544</v>
       </c>
       <c r="E33" t="n">
-        <v>32.45932575975218</v>
+        <v>154.0447845327544</v>
       </c>
       <c r="F33" t="n">
-        <v>32.45932575975218</v>
+        <v>154.0447845327544</v>
       </c>
       <c r="G33" t="n">
-        <v>32.45932575975218</v>
+        <v>154.0447845327544</v>
       </c>
       <c r="H33" t="n">
-        <v>32.45932575975218</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I33" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J33" t="n">
-        <v>61.20822116384403</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="K33" t="n">
-        <v>61.20822116384403</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="L33" t="n">
         <v>358.9399761455072</v>
@@ -6789,7 +6789,7 @@
         <v>758.3581127497703</v>
       </c>
       <c r="N33" t="n">
-        <v>1160.042269026703</v>
+        <v>1160.042269026704</v>
       </c>
       <c r="O33" t="n">
         <v>1483.055776201262</v>
@@ -6807,22 +6807,22 @@
         <v>1455.464052945775</v>
       </c>
       <c r="T33" t="n">
-        <v>1254.561044051268</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="U33" t="n">
-        <v>1254.561044051268</v>
+        <v>1227.261385483253</v>
       </c>
       <c r="V33" t="n">
-        <v>1193.911257420887</v>
+        <v>992.1092772515108</v>
       </c>
       <c r="W33" t="n">
-        <v>939.6739006926853</v>
+        <v>737.8719205233092</v>
       </c>
       <c r="X33" t="n">
-        <v>731.8224004871524</v>
+        <v>530.0204203177764</v>
       </c>
       <c r="Y33" t="n">
-        <v>524.0621017221986</v>
+        <v>322.2601215528225</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="C34" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="D34" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="E34" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="F34" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="G34" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="H34" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="I34" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="J34" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="K34" t="n">
-        <v>40.81344334191284</v>
+        <v>1302.533129726572</v>
       </c>
       <c r="L34" t="n">
-        <v>107.0302722280248</v>
+        <v>1368.749958612684</v>
       </c>
       <c r="M34" t="n">
-        <v>187.235757098444</v>
+        <v>1448.955443483103</v>
       </c>
       <c r="N34" t="n">
-        <v>270.9687512285709</v>
+        <v>1532.68843761323</v>
       </c>
       <c r="O34" t="n">
-        <v>332.2934283710737</v>
+        <v>1594.013114755733</v>
       </c>
       <c r="P34" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q34" t="n">
-        <v>361.2466016029501</v>
+        <v>1558.289822548878</v>
       </c>
       <c r="R34" t="n">
-        <v>361.2466016029501</v>
+        <v>1391.209962814678</v>
       </c>
       <c r="S34" t="n">
-        <v>361.2466016029501</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="T34" t="n">
-        <v>361.2466016029501</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="U34" t="n">
-        <v>361.2466016029501</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="V34" t="n">
-        <v>361.2466016029501</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="W34" t="n">
-        <v>361.2466016029501</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="X34" t="n">
-        <v>133.2570507049328</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="Y34" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144412</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6911,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1145.475793905159</v>
+        <v>401.4218427001639</v>
       </c>
       <c r="C35" t="n">
-        <v>776.5132769647469</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D35" t="n">
-        <v>418.2475783579964</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E35" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F35" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G35" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H35" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I35" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J35" t="n">
         <v>70.13987180521508</v>
       </c>
       <c r="K35" t="n">
-        <v>247.3580469011318</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L35" t="n">
         <v>519.4894913528326</v>
@@ -6962,25 +6962,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S35" t="n">
-        <v>1622.966287987609</v>
+        <v>1530.929670010212</v>
       </c>
       <c r="T35" t="n">
-        <v>1622.966287987609</v>
+        <v>1530.929670010212</v>
       </c>
       <c r="U35" t="n">
-        <v>1622.966287987609</v>
+        <v>1530.929670010212</v>
       </c>
       <c r="V35" t="n">
-        <v>1518.941552166238</v>
+        <v>1530.929670010212</v>
       </c>
       <c r="W35" t="n">
-        <v>1518.941552166238</v>
+        <v>1178.161014740097</v>
       </c>
       <c r="X35" t="n">
-        <v>1145.475793905159</v>
+        <v>1178.161014740097</v>
       </c>
       <c r="Y35" t="n">
-        <v>1145.475793905159</v>
+        <v>788.0216827642857</v>
       </c>
     </row>
     <row r="36">
@@ -6990,49 +6990,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>818.5068763832137</v>
+        <v>743.9997133228583</v>
       </c>
       <c r="C36" t="n">
-        <v>644.0538471020867</v>
+        <v>569.5466840417313</v>
       </c>
       <c r="D36" t="n">
-        <v>644.0538471020867</v>
+        <v>420.61227438048</v>
       </c>
       <c r="E36" t="n">
-        <v>507.0351915391004</v>
+        <v>420.61227438048</v>
       </c>
       <c r="F36" t="n">
-        <v>360.5006335659854</v>
+        <v>274.077716407365</v>
       </c>
       <c r="G36" t="n">
-        <v>222.0882603251556</v>
+        <v>135.6653431665352</v>
       </c>
       <c r="H36" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I36" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J36" t="n">
-        <v>32.45932575975218</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="K36" t="n">
-        <v>208.2166101768439</v>
+        <v>236.9655055809358</v>
       </c>
       <c r="L36" t="n">
-        <v>505.948365158507</v>
+        <v>534.697260562599</v>
       </c>
       <c r="M36" t="n">
-        <v>656.0248753321102</v>
+        <v>934.1153971668621</v>
       </c>
       <c r="N36" t="n">
-        <v>1057.709031609043</v>
+        <v>948.4732699082808</v>
       </c>
       <c r="O36" t="n">
-        <v>1380.722538783602</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P36" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q36" t="n">
         <v>1622.966287987609</v>
@@ -7041,25 +7041,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S36" t="n">
-        <v>1455.464052945775</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T36" t="n">
-        <v>1254.561044051268</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U36" t="n">
-        <v>1026.358376588747</v>
+        <v>1394.763620525088</v>
       </c>
       <c r="V36" t="n">
-        <v>1026.358376588747</v>
+        <v>1159.611512293345</v>
       </c>
       <c r="W36" t="n">
-        <v>1026.358376588747</v>
+        <v>1159.611512293345</v>
       </c>
       <c r="X36" t="n">
-        <v>818.5068763832137</v>
+        <v>951.7600120878121</v>
       </c>
       <c r="Y36" t="n">
-        <v>818.5068763832137</v>
+        <v>743.9997133228583</v>
       </c>
     </row>
     <row r="37">
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>140.45402245942</v>
+        <v>351.5121480999949</v>
       </c>
       <c r="C37" t="n">
-        <v>140.45402245942</v>
+        <v>182.5759651720879</v>
       </c>
       <c r="D37" t="n">
-        <v>140.45402245942</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E37" t="n">
-        <v>140.45402245942</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F37" t="n">
-        <v>140.45402245942</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G37" t="n">
-        <v>140.45402245942</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H37" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I37" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J37" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K37" t="n">
-        <v>40.81344334191284</v>
+        <v>40.81344334191285</v>
       </c>
       <c r="L37" t="n">
         <v>107.0302722280248</v>
@@ -7138,7 +7138,7 @@
         <v>361.2466016029501</v>
       </c>
       <c r="Y37" t="n">
-        <v>140.45402245942</v>
+        <v>361.2466016029501</v>
       </c>
     </row>
     <row r="38">
@@ -7148,16 +7148,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>32.45932575975219</v>
+        <v>442.299297473795</v>
       </c>
       <c r="C38" t="n">
-        <v>32.45932575975219</v>
+        <v>442.299297473795</v>
       </c>
       <c r="D38" t="n">
-        <v>32.45932575975219</v>
+        <v>442.299297473795</v>
       </c>
       <c r="E38" t="n">
-        <v>32.45932575975219</v>
+        <v>442.299297473795</v>
       </c>
       <c r="F38" t="n">
         <v>32.45932575975219</v>
@@ -7175,10 +7175,10 @@
         <v>70.13987180521508</v>
       </c>
       <c r="K38" t="n">
-        <v>247.3580469011319</v>
+        <v>247.358046901132</v>
       </c>
       <c r="L38" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528327</v>
       </c>
       <c r="M38" t="n">
         <v>838.8947028941457</v>
@@ -7187,37 +7187,37 @@
         <v>1148.836227140252</v>
       </c>
       <c r="O38" t="n">
-        <v>1396.317581748321</v>
+        <v>1396.31758174832</v>
       </c>
       <c r="P38" t="n">
         <v>1569.862809315274</v>
       </c>
       <c r="Q38" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R38" t="n">
         <v>1508.970645214178</v>
       </c>
       <c r="S38" t="n">
-        <v>1311.402045381202</v>
+        <v>1400.664826146191</v>
       </c>
       <c r="T38" t="n">
-        <v>1088.658125761969</v>
+        <v>1400.664826146191</v>
       </c>
       <c r="U38" t="n">
-        <v>834.8212426942234</v>
+        <v>1146.827943078446</v>
       </c>
       <c r="V38" t="n">
-        <v>503.7583553506528</v>
+        <v>815.7650557348749</v>
       </c>
       <c r="W38" t="n">
-        <v>150.9897000805386</v>
+        <v>815.7650557348749</v>
       </c>
       <c r="X38" t="n">
-        <v>150.9897000805386</v>
+        <v>442.299297473795</v>
       </c>
       <c r="Y38" t="n">
-        <v>150.9897000805386</v>
+        <v>442.299297473795</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>871.719572189653</v>
+        <v>549.7496870371103</v>
       </c>
       <c r="C39" t="n">
-        <v>815.2070562058072</v>
+        <v>375.2966577559833</v>
       </c>
       <c r="D39" t="n">
-        <v>666.272646544556</v>
+        <v>226.3622480947321</v>
       </c>
       <c r="E39" t="n">
-        <v>507.0351915391004</v>
+        <v>67.12479308927658</v>
       </c>
       <c r="F39" t="n">
-        <v>360.5006335659854</v>
+        <v>67.12479308927658</v>
       </c>
       <c r="G39" t="n">
-        <v>222.0882603251556</v>
+        <v>67.12479308927658</v>
       </c>
       <c r="H39" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I39" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="J39" t="n">
-        <v>32.45932575975219</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="K39" t="n">
-        <v>208.2166101768439</v>
+        <v>236.9655055809358</v>
       </c>
       <c r="L39" t="n">
-        <v>505.9483651585071</v>
+        <v>534.697260562599</v>
       </c>
       <c r="M39" t="n">
-        <v>656.0248753321105</v>
+        <v>934.1153971668621</v>
       </c>
       <c r="N39" t="n">
-        <v>1057.709031609044</v>
+        <v>1057.709031609043</v>
       </c>
       <c r="O39" t="n">
         <v>1380.722538783602</v>
       </c>
       <c r="P39" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q39" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R39" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S39" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T39" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U39" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V39" t="n">
-        <v>1541.568727888341</v>
+        <v>1387.814179755867</v>
       </c>
       <c r="W39" t="n">
-        <v>1287.33137116014</v>
+        <v>1133.576823027665</v>
       </c>
       <c r="X39" t="n">
-        <v>1079.479870954607</v>
+        <v>925.7253228221323</v>
       </c>
       <c r="Y39" t="n">
-        <v>871.719572189653</v>
+        <v>717.9650240571784</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>32.45932575975219</v>
+        <v>1369.60575604483</v>
       </c>
       <c r="C40" t="n">
-        <v>32.45932575975219</v>
+        <v>1369.60575604483</v>
       </c>
       <c r="D40" t="n">
-        <v>32.45932575975219</v>
+        <v>1369.60575604483</v>
       </c>
       <c r="E40" t="n">
-        <v>32.45932575975219</v>
+        <v>1369.60575604483</v>
       </c>
       <c r="F40" t="n">
-        <v>32.45932575975219</v>
+        <v>1369.60575604483</v>
       </c>
       <c r="G40" t="n">
-        <v>32.45932575975219</v>
+        <v>1369.60575604483</v>
       </c>
       <c r="H40" t="n">
-        <v>32.45932575975219</v>
+        <v>1369.60575604483</v>
       </c>
       <c r="I40" t="n">
-        <v>32.45932575975219</v>
+        <v>1369.60575604483</v>
       </c>
       <c r="J40" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="K40" t="n">
-        <v>40.81344334191286</v>
+        <v>1302.533129726572</v>
       </c>
       <c r="L40" t="n">
-        <v>107.0302722280248</v>
+        <v>1368.749958612684</v>
       </c>
       <c r="M40" t="n">
-        <v>187.235757098444</v>
+        <v>1448.955443483103</v>
       </c>
       <c r="N40" t="n">
-        <v>270.9687512285709</v>
+        <v>1532.68843761323</v>
       </c>
       <c r="O40" t="n">
-        <v>332.2934283710737</v>
+        <v>1594.013114755733</v>
       </c>
       <c r="P40" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q40" t="n">
-        <v>361.2466016029501</v>
+        <v>1558.289822548878</v>
       </c>
       <c r="R40" t="n">
-        <v>361.2466016029501</v>
+        <v>1391.209962814678</v>
       </c>
       <c r="S40" t="n">
-        <v>361.2466016029501</v>
+        <v>1369.60575604483</v>
       </c>
       <c r="T40" t="n">
-        <v>361.2466016029501</v>
+        <v>1369.60575604483</v>
       </c>
       <c r="U40" t="n">
-        <v>72.05002336285366</v>
+        <v>1369.60575604483</v>
       </c>
       <c r="V40" t="n">
-        <v>72.05002336285366</v>
+        <v>1369.60575604483</v>
       </c>
       <c r="W40" t="n">
-        <v>72.05002336285366</v>
+        <v>1369.60575604483</v>
       </c>
       <c r="X40" t="n">
-        <v>72.05002336285366</v>
+        <v>1369.60575604483</v>
       </c>
       <c r="Y40" t="n">
-        <v>32.45932575975219</v>
+        <v>1369.60575604483</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1088.658125761969</v>
+        <v>921.2627134053896</v>
       </c>
       <c r="C41" t="n">
-        <v>1088.658125761969</v>
+        <v>921.2627134053896</v>
       </c>
       <c r="D41" t="n">
-        <v>1088.658125761969</v>
+        <v>921.2627134053896</v>
       </c>
       <c r="E41" t="n">
-        <v>1088.658125761969</v>
+        <v>921.2627134053896</v>
       </c>
       <c r="F41" t="n">
-        <v>678.8181540479263</v>
+        <v>921.2627134053896</v>
       </c>
       <c r="G41" t="n">
-        <v>268.9781823338835</v>
+        <v>558.9237552812579</v>
       </c>
       <c r="H41" t="n">
-        <v>32.45932575975219</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="I41" t="n">
         <v>32.45932575975219</v>
@@ -7439,22 +7439,22 @@
         <v>1311.402045381201</v>
       </c>
       <c r="T41" t="n">
-        <v>1088.658125761969</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="U41" t="n">
-        <v>1088.658125761969</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="V41" t="n">
-        <v>1088.658125761969</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="W41" t="n">
-        <v>1088.658125761969</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="X41" t="n">
-        <v>1088.658125761969</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="Y41" t="n">
-        <v>1088.658125761969</v>
+        <v>921.2627134053896</v>
       </c>
     </row>
     <row r="42">
@@ -7464,46 +7464,46 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>879.3665274943975</v>
+        <v>784.901795268853</v>
       </c>
       <c r="C42" t="n">
-        <v>704.9134982132705</v>
+        <v>610.448765987726</v>
       </c>
       <c r="D42" t="n">
-        <v>555.9790885520192</v>
+        <v>461.5143563264747</v>
       </c>
       <c r="E42" t="n">
-        <v>396.7416335465637</v>
+        <v>302.2769013210192</v>
       </c>
       <c r="F42" t="n">
-        <v>250.2070755734487</v>
+        <v>155.7423433479042</v>
       </c>
       <c r="G42" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H42" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I42" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="J42" t="n">
-        <v>32.45932575975219</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="K42" t="n">
-        <v>32.45932575975219</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="L42" t="n">
-        <v>330.1910807414154</v>
+        <v>358.9399761455072</v>
       </c>
       <c r="M42" t="n">
-        <v>729.6092173456784</v>
+        <v>758.3581127497703</v>
       </c>
       <c r="N42" t="n">
-        <v>1131.293373622612</v>
+        <v>1160.042269026704</v>
       </c>
       <c r="O42" t="n">
-        <v>1380.722538783602</v>
+        <v>1483.055776201262</v>
       </c>
       <c r="P42" t="n">
         <v>1622.966287987609</v>
@@ -7515,25 +7515,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S42" t="n">
-        <v>1455.464052945775</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T42" t="n">
-        <v>1254.561044051268</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U42" t="n">
-        <v>1254.561044051268</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V42" t="n">
-        <v>1254.561044051268</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W42" t="n">
-        <v>1254.561044051268</v>
+        <v>1368.728931259408</v>
       </c>
       <c r="X42" t="n">
-        <v>1254.561044051268</v>
+        <v>1160.877431053875</v>
       </c>
       <c r="Y42" t="n">
-        <v>1047.581864514465</v>
+        <v>953.1171322889211</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>32.45932575975219</v>
+        <v>1443.170888970756</v>
       </c>
       <c r="C43" t="n">
-        <v>32.45932575975219</v>
+        <v>1443.170888970756</v>
       </c>
       <c r="D43" t="n">
-        <v>32.45932575975219</v>
+        <v>1443.170888970756</v>
       </c>
       <c r="E43" t="n">
-        <v>32.45932575975219</v>
+        <v>1443.170888970756</v>
       </c>
       <c r="F43" t="n">
-        <v>32.45932575975219</v>
+        <v>1443.170888970756</v>
       </c>
       <c r="G43" t="n">
-        <v>32.45932575975219</v>
+        <v>1443.170888970756</v>
       </c>
       <c r="H43" t="n">
-        <v>32.45932575975219</v>
+        <v>1443.170888970756</v>
       </c>
       <c r="I43" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="J43" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="K43" t="n">
-        <v>40.81344334191286</v>
+        <v>1302.533129726572</v>
       </c>
       <c r="L43" t="n">
-        <v>107.0302722280248</v>
+        <v>1368.749958612684</v>
       </c>
       <c r="M43" t="n">
-        <v>187.235757098444</v>
+        <v>1448.955443483103</v>
       </c>
       <c r="N43" t="n">
-        <v>270.9687512285709</v>
+        <v>1532.68843761323</v>
       </c>
       <c r="O43" t="n">
-        <v>332.2934283710737</v>
+        <v>1594.013114755733</v>
       </c>
       <c r="P43" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q43" t="n">
-        <v>361.2466016029501</v>
+        <v>1558.289822548878</v>
       </c>
       <c r="R43" t="n">
-        <v>361.2466016029501</v>
+        <v>1558.289822548878</v>
       </c>
       <c r="S43" t="n">
-        <v>361.2466016029501</v>
+        <v>1443.170888970756</v>
       </c>
       <c r="T43" t="n">
-        <v>361.2466016029501</v>
+        <v>1443.170888970756</v>
       </c>
       <c r="U43" t="n">
-        <v>72.05002336285366</v>
+        <v>1443.170888970756</v>
       </c>
       <c r="V43" t="n">
-        <v>72.05002336285366</v>
+        <v>1443.170888970756</v>
       </c>
       <c r="W43" t="n">
-        <v>72.05002336285366</v>
+        <v>1443.170888970756</v>
       </c>
       <c r="X43" t="n">
-        <v>72.05002336285366</v>
+        <v>1443.170888970756</v>
       </c>
       <c r="Y43" t="n">
-        <v>32.45932575975219</v>
+        <v>1443.170888970756</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>784.9609650227653</v>
+        <v>181.8942180711537</v>
       </c>
       <c r="C44" t="n">
-        <v>784.9609650227653</v>
+        <v>181.8942180711537</v>
       </c>
       <c r="D44" t="n">
-        <v>784.9609650227653</v>
+        <v>181.8942180711537</v>
       </c>
       <c r="E44" t="n">
-        <v>399.1727124245211</v>
+        <v>181.8942180711537</v>
       </c>
       <c r="F44" t="n">
-        <v>399.1727124245211</v>
+        <v>181.8942180711537</v>
       </c>
       <c r="G44" t="n">
-        <v>369.2677254726013</v>
+        <v>181.8942180711537</v>
       </c>
       <c r="H44" t="n">
         <v>32.45932575975219</v>
@@ -7649,10 +7649,10 @@
         <v>70.13987180521508</v>
       </c>
       <c r="K44" t="n">
-        <v>247.358046901132</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L44" t="n">
-        <v>519.4894913528327</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M44" t="n">
         <v>838.8947028941457</v>
@@ -7661,7 +7661,7 @@
         <v>1148.836227140252</v>
       </c>
       <c r="O44" t="n">
-        <v>1396.31758174832</v>
+        <v>1396.317581748321</v>
       </c>
       <c r="P44" t="n">
         <v>1569.862809315274</v>
@@ -7670,28 +7670,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R44" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="S44" t="n">
-        <v>1425.397688154633</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="T44" t="n">
-        <v>1425.397688154633</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="U44" t="n">
-        <v>1171.560805086887</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="V44" t="n">
-        <v>1171.560805086887</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="W44" t="n">
-        <v>1171.560805086887</v>
+        <v>958.6333901110872</v>
       </c>
       <c r="X44" t="n">
-        <v>1171.560805086887</v>
+        <v>958.6333901110872</v>
       </c>
       <c r="Y44" t="n">
-        <v>1171.560805086887</v>
+        <v>568.4940581352755</v>
       </c>
     </row>
     <row r="45">
@@ -7701,40 +7701,40 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>106.8963237707219</v>
+        <v>496.6196464651039</v>
       </c>
       <c r="C45" t="n">
-        <v>106.8963237707219</v>
+        <v>496.6196464651039</v>
       </c>
       <c r="D45" t="n">
-        <v>106.8963237707219</v>
+        <v>496.6196464651039</v>
       </c>
       <c r="E45" t="n">
-        <v>106.8963237707219</v>
+        <v>496.6196464651039</v>
       </c>
       <c r="F45" t="n">
-        <v>32.45932575975219</v>
+        <v>350.0850884919888</v>
       </c>
       <c r="G45" t="n">
-        <v>32.45932575975219</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H45" t="n">
-        <v>32.45932575975219</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I45" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="J45" t="n">
-        <v>61.20822116384404</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K45" t="n">
-        <v>61.20822116384404</v>
+        <v>208.2166101768439</v>
       </c>
       <c r="L45" t="n">
-        <v>147.3709770270843</v>
+        <v>505.9483651585071</v>
       </c>
       <c r="M45" t="n">
-        <v>546.7891136313473</v>
+        <v>905.3665017627701</v>
       </c>
       <c r="N45" t="n">
         <v>948.4732699082806</v>
@@ -7749,28 +7749,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R45" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S45" t="n">
-        <v>1374.066492846507</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T45" t="n">
-        <v>1173.163483952</v>
+        <v>1422.063279093103</v>
       </c>
       <c r="U45" t="n">
-        <v>944.9608164894784</v>
+        <v>1193.860611630581</v>
       </c>
       <c r="V45" t="n">
-        <v>944.9608164894784</v>
+        <v>958.7085033988383</v>
       </c>
       <c r="W45" t="n">
-        <v>690.7234597612767</v>
+        <v>704.4711466706367</v>
       </c>
       <c r="X45" t="n">
-        <v>482.8719595557438</v>
+        <v>496.6196464651039</v>
       </c>
       <c r="Y45" t="n">
-        <v>275.1116607907899</v>
+        <v>496.6196464651039</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C46" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D46" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E46" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F46" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G46" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H46" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I46" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J46" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K46" t="n">
-        <v>1302.533129726572</v>
+        <v>40.81344334191286</v>
       </c>
       <c r="L46" t="n">
-        <v>1368.749958612684</v>
+        <v>107.0302722280248</v>
       </c>
       <c r="M46" t="n">
-        <v>1448.955443483103</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N46" t="n">
-        <v>1532.68843761323</v>
+        <v>270.9687512285709</v>
       </c>
       <c r="O46" t="n">
-        <v>1594.013114755733</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P46" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q46" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R46" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S46" t="n">
-        <v>1622.966287987609</v>
+        <v>261.5666648398646</v>
       </c>
       <c r="T46" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="U46" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="V46" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="W46" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="X46" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="Y46" t="n">
-        <v>1402.173708844079</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
   </sheetData>
@@ -7979,7 +7979,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -8061,22 +8061,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M3" t="n">
-        <v>368.5691090902119</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,25 +8295,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,19 +8532,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>368.5691090902119</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8769,16 +8769,16 @@
         <v>97.05174705344737</v>
       </c>
       <c r="K12" t="n">
-        <v>86.93262649026374</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>186.1735738748421</v>
+        <v>118.9801165856209</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>455.0874215304797</v>
+        <v>455.0874215304796</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8787,7 +8787,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275541</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8936,7 +8936,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>437.346924411984</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9009,13 +9009,13 @@
         <v>86.93262649026374</v>
       </c>
       <c r="L15" t="n">
-        <v>186.173573874842</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>455.0874215304796</v>
+        <v>380.7598033349565</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9024,7 +9024,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275541</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9170,7 +9170,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928322</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9249,10 +9249,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>103.505681799068</v>
+        <v>74.46639351210649</v>
       </c>
       <c r="N18" t="n">
-        <v>455.0874215304796</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9483,13 +9483,13 @@
         <v>86.93262649026374</v>
       </c>
       <c r="L21" t="n">
-        <v>267.4734388209743</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>251.9990040344215</v>
       </c>
       <c r="N21" t="n">
-        <v>455.0874215304796</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>99.73813450275541</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9723,16 +9723,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>458.5354907937858</v>
       </c>
       <c r="N24" t="n">
         <v>455.0874215304797</v>
       </c>
       <c r="O24" t="n">
-        <v>112.9628022719299</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>73.77211287831322</v>
       </c>
       <c r="Q24" t="n">
         <v>99.73813450275541</v>
@@ -9954,19 +9954,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>86.93262649026374</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>362.3381572675152</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>455.0874215304796</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>112.9628022719297</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10194,22 +10194,22 @@
         <v>86.93262649026374</v>
       </c>
       <c r="L30" t="n">
-        <v>267.4734388209743</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>455.0874215304796</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>104.7567089243584</v>
       </c>
       <c r="Q30" t="n">
-        <v>99.73813450275541</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10671,10 +10671,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>213.8448350321618</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>455.0874215304796</v>
+        <v>63.84875129258623</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10683,7 +10683,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>99.73813450275541</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10838,7 +10838,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714825</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10908,10 +10908,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>213.8448350321619</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>455.0874215304797</v>
+        <v>174.1879045256798</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -11136,7 +11136,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>86.93262649026374</v>
@@ -11151,10 +11151,10 @@
         <v>455.0874215304797</v>
       </c>
       <c r="O42" t="n">
-        <v>319.5347010812059</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>215.0958621574522</v>
       </c>
       <c r="Q42" t="n">
         <v>99.7381345027554</v>
@@ -11312,7 +11312,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714823</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11373,19 +11373,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K45" t="n">
-        <v>86.93262649026374</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>157.1342855878804</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>455.0874215304797</v>
+        <v>92.88803957954757</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -23267,16 +23267,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>1.1344737448091</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>8.971932133631583</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,22 +23306,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>66.52963679486066</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>252.3860301008911</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23343,19 +23343,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>128.0106975665961</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>129.6030249771194</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23382,7 +23382,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -23400,10 +23400,10 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>123.3497577082893</v>
+        <v>123.3497577082892</v>
       </c>
       <c r="T13" t="n">
         <v>226.8162656893113</v>
@@ -23498,16 +23498,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>1.1344737448091</v>
       </c>
       <c r="G14" t="n">
-        <v>414.7135041305339</v>
+        <v>236.7370837930197</v>
       </c>
       <c r="H14" t="n">
         <v>333.4403157157206</v>
@@ -23540,7 +23540,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>90.35522986376991</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -23549,19 +23549,19 @@
         <v>220.5164804230398</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23571,13 +23571,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>104.344364468591</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -23589,10 +23589,10 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23628,10 +23628,10 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -23640,7 +23640,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>2.814869727007022</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23668,13 +23668,13 @@
         <v>167.7266695472104</v>
       </c>
       <c r="H16" t="n">
-        <v>120.5819502228691</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>219.4103988718534</v>
+        <v>123.3497577082893</v>
       </c>
       <c r="T16" t="n">
         <v>226.8162656893113</v>
@@ -23741,10 +23741,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1.134473744809156</v>
+        <v>1.1344737448091</v>
       </c>
       <c r="G17" t="n">
-        <v>8.97193213363164</v>
+        <v>8.971932133631583</v>
       </c>
       <c r="H17" t="n">
         <v>306.9349787968916</v>
@@ -23808,28 +23808,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>109.1906224126114</v>
+        <v>30.00220832758463</v>
       </c>
       <c r="I18" t="n">
-        <v>10.50331489191568</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,19 +23856,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -23877,7 +23877,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>80.0422324862085</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23932,10 +23932,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S19" t="n">
         <v>219.4103988718534</v>
@@ -23950,10 +23950,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>190.4623571730269</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23969,10 +23969,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -24020,22 +24020,22 @@
         <v>195.5929138346465</v>
       </c>
       <c r="T20" t="n">
-        <v>220.5164804230398</v>
+        <v>84.56491158511727</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V20" t="n">
-        <v>57.8451292090362</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24045,28 +24045,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>83.44307062257275</v>
       </c>
       <c r="D21" t="n">
-        <v>131.5084000351869</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24096,13 +24096,13 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T21" t="n">
         <v>198.8939788055617</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -24111,10 +24111,10 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>72.9172304492661</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24178,10 +24178,10 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T22" t="n">
-        <v>226.8162656893113</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.3046124576955</v>
+        <v>187.621475062241</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24193,7 +24193,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24203,10 +24203,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>344.4967758009113</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24215,10 +24215,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>12.65941167488495</v>
+        <v>1.134473744809043</v>
       </c>
       <c r="G23" t="n">
-        <v>8.97193213363164</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H23" t="n">
         <v>333.4403157157206</v>
@@ -24257,16 +24257,16 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24282,13 +24282,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
@@ -24297,7 +24297,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H24" t="n">
         <v>109.1906224126114</v>
@@ -24333,13 +24333,13 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S24" t="n">
-        <v>49.01944047884376</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>33.95674767626633</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -24421,13 +24421,13 @@
         <v>286.3046124576955</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>186.7332506408622</v>
+        <v>213.1612385756532</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24440,28 +24440,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>315.7598245187566</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>1.1344737448091</v>
       </c>
       <c r="G26" t="n">
         <v>414.7135041305339</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24488,19 +24488,19 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S26" t="n">
-        <v>54.61374593129955</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24519,16 +24519,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
@@ -24579,13 +24579,13 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>21.7935553071226</v>
       </c>
       <c r="W27" t="n">
-        <v>150.219855924099</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -24610,13 +24610,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>167.7266695472104</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>159.8772180037952</v>
+        <v>147.5255324891709</v>
       </c>
       <c r="I28" t="n">
         <v>147.5019580580808</v>
@@ -24643,10 +24643,10 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R28" t="n">
-        <v>156.0770021602639</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S28" t="n">
         <v>219.4103988718534</v>
@@ -24658,7 +24658,7 @@
         <v>286.3046124576955</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24680,19 +24680,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>277.8113772896261</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>8.808161011404422</v>
       </c>
       <c r="G29" t="n">
-        <v>414.7135041305339</v>
+        <v>8.971932133631583</v>
       </c>
       <c r="H29" t="n">
         <v>333.4403157157206</v>
@@ -24728,10 +24728,10 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S29" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.2985142370684</v>
@@ -24740,13 +24740,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24759,16 +24759,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>170.7282605068506</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -24777,7 +24777,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24807,10 +24807,10 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S30" t="n">
-        <v>31.06938992128877</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -24822,7 +24822,7 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24880,13 +24880,13 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>59.32005692394497</v>
       </c>
       <c r="S31" t="n">
-        <v>123.3497577082892</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>226.8162656893113</v>
@@ -24914,13 +24914,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -24929,13 +24929,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>8.97193213363164</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I32" t="n">
-        <v>19.7473731123695</v>
+        <v>45.26099902555239</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,16 +24962,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -24983,7 +24983,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -24996,10 +24996,10 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
@@ -25011,10 +25011,10 @@
         <v>137.0282495084215</v>
       </c>
       <c r="H33" t="n">
-        <v>109.1906224126114</v>
+        <v>67.36304103447719</v>
       </c>
       <c r="I33" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25047,13 +25047,13 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>172.7572983853477</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -25117,13 +25117,13 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>64.0297007843443</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>219.4103988718534</v>
+        <v>123.3497577082895</v>
       </c>
       <c r="T34" t="n">
         <v>226.8162656893113</v>
@@ -25138,10 +25138,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>118.794905656366</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25151,16 +25151,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -25202,7 +25202,7 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S35" t="n">
-        <v>195.5929138346465</v>
+        <v>104.4766620370227</v>
       </c>
       <c r="T35" t="n">
         <v>220.5164804230398</v>
@@ -25211,16 +25211,16 @@
         <v>251.2985142370684</v>
       </c>
       <c r="V35" t="n">
-        <v>224.7677700069779</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25236,10 +25236,10 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>21.99661144804455</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -25248,10 +25248,10 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>7.016665179896194</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25281,16 +25281,16 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
@@ -25299,7 +25299,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25309,13 +25309,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>170.1948712140116</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25327,7 +25327,7 @@
         <v>167.7266695472104</v>
       </c>
       <c r="H37" t="n">
-        <v>52.96246827112404</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I37" t="n">
         <v>147.5019580580808</v>
@@ -25378,7 +25378,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25388,7 +25388,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>265.388771085902</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25400,7 +25400,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>1.1344737448091</v>
       </c>
       <c r="G38" t="n">
         <v>414.7135041305339</v>
@@ -25439,10 +25439,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>88.37015295734015</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25451,10 +25451,10 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25467,10 +25467,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>116.7611081643084</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -25479,16 +25479,16 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>74.87180975638222</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25515,7 +25515,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S39" t="n">
         <v>165.8272126914158</v>
@@ -25527,7 +25527,7 @@
         <v>225.9206407878966</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -25570,7 +25570,7 @@
         <v>147.5019580580808</v>
       </c>
       <c r="J40" t="n">
-        <v>74.67247646141475</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25591,19 +25591,19 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>64.02970078434429</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>219.4103988718534</v>
+        <v>198.0222341697039</v>
       </c>
       <c r="T40" t="n">
         <v>226.8162656893113</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25615,7 +25615,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>179.3898627250243</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25637,16 +25637,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>1.1344737448091</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>8.971932133631583</v>
+        <v>55.9979355876435</v>
       </c>
       <c r="H41" t="n">
-        <v>99.28664770733059</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25679,7 +25679,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U41" t="n">
         <v>251.2985142370684</v>
@@ -25694,7 +25694,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25719,13 +25719,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>14.97806209615096</v>
       </c>
       <c r="H42" t="n">
         <v>109.1906224126114</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25755,10 +25755,10 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U42" t="n">
         <v>225.9206407878966</v>
@@ -25767,13 +25767,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.7733080358693769</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25804,7 +25804,7 @@
         <v>159.8772180037952</v>
       </c>
       <c r="I43" t="n">
-        <v>147.5019580580808</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>74.67247646141475</v>
@@ -25828,19 +25828,19 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>64.02970078434429</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>165.4090611368575</v>
       </c>
       <c r="S43" t="n">
-        <v>219.4103988718534</v>
+        <v>105.4426546295125</v>
       </c>
       <c r="T43" t="n">
         <v>226.8162656893113</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25852,7 +25852,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>179.3898627250243</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25871,16 +25871,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>385.1075670481333</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>185.4997723274331</v>
       </c>
       <c r="I44" t="n">
         <v>187.7594695105699</v>
@@ -25910,7 +25910,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -25919,19 +25919,19 @@
         <v>220.5164804230398</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25941,7 +25941,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
@@ -25953,16 +25953,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>71.37658436252387</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.0282495084215</v>
+        <v>10.31138962325662</v>
       </c>
       <c r="H45" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25989,10 +25989,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -26001,7 +26001,7 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -26010,7 +26010,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>72.9172304492661</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26071,10 +26071,10 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S46" t="n">
-        <v>219.4103988718534</v>
+        <v>120.7272614763987</v>
       </c>
       <c r="T46" t="n">
-        <v>226.8162656893113</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.3046124576955</v>
@@ -26089,7 +26089,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>510566.6582739367</v>
+        <v>510566.6582739364</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>510566.6582739364</v>
+        <v>510566.6582739362</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>510566.6582739361</v>
+        <v>510566.6582739365</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>510566.6582739361</v>
+        <v>510566.6582739365</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>510566.6582739364</v>
+        <v>510566.6582739365</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>510566.6582739364</v>
+        <v>510566.6582739365</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>510566.6582739364</v>
+        <v>510566.6582739365</v>
       </c>
     </row>
     <row r="16">
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583913</v>
+        <v>554203.1946583914</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583913</v>
+        <v>554203.1946583914</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583914</v>
+        <v>554203.1946583915</v>
       </c>
       <c r="E2" t="n">
+        <v>288399.0110372187</v>
+      </c>
+      <c r="F2" t="n">
+        <v>288399.011037219</v>
+      </c>
+      <c r="G2" t="n">
+        <v>288399.0110372188</v>
+      </c>
+      <c r="H2" t="n">
         <v>288399.0110372189</v>
-      </c>
-      <c r="F2" t="n">
-        <v>288399.0110372189</v>
-      </c>
-      <c r="G2" t="n">
-        <v>288399.0110372187</v>
-      </c>
-      <c r="H2" t="n">
-        <v>288399.011037219</v>
       </c>
       <c r="I2" t="n">
         <v>288399.011037219</v>
@@ -26344,10 +26344,10 @@
         <v>288399.011037219</v>
       </c>
       <c r="M2" t="n">
+        <v>288399.011037219</v>
+      </c>
+      <c r="N2" t="n">
         <v>288399.0110372189</v>
-      </c>
-      <c r="N2" t="n">
-        <v>288399.011037219</v>
       </c>
       <c r="O2" t="n">
         <v>288399.011037219</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>41050.69786244789</v>
+        <v>41050.6978624479</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>331135.7712457015</v>
+        <v>329330.5315619939</v>
       </c>
       <c r="C4" t="n">
-        <v>331135.7712457015</v>
+        <v>329330.5315619941</v>
       </c>
       <c r="D4" t="n">
-        <v>331135.7712457015</v>
+        <v>329330.531561994</v>
       </c>
       <c r="E4" t="n">
-        <v>53413.80855851863</v>
+        <v>51570.48828808073</v>
       </c>
       <c r="F4" t="n">
-        <v>53413.80855851863</v>
+        <v>51570.48828808074</v>
       </c>
       <c r="G4" t="n">
-        <v>53413.80855851863</v>
+        <v>51570.48828808073</v>
       </c>
       <c r="H4" t="n">
-        <v>53413.80855851863</v>
+        <v>51570.48828808073</v>
       </c>
       <c r="I4" t="n">
-        <v>53413.80855851863</v>
+        <v>51570.48828808075</v>
       </c>
       <c r="J4" t="n">
-        <v>53413.80855851863</v>
+        <v>51570.48828808073</v>
       </c>
       <c r="K4" t="n">
-        <v>53413.80855851863</v>
+        <v>51570.48828808073</v>
       </c>
       <c r="L4" t="n">
-        <v>53413.80855851863</v>
+        <v>51570.48828808073</v>
       </c>
       <c r="M4" t="n">
-        <v>53413.80855851863</v>
+        <v>51570.48828808073</v>
       </c>
       <c r="N4" t="n">
-        <v>53413.80855851863</v>
+        <v>51570.48828808074</v>
       </c>
       <c r="O4" t="n">
-        <v>53413.80855851863</v>
+        <v>51570.48828808073</v>
       </c>
       <c r="P4" t="n">
-        <v>53413.80855851863</v>
+        <v>51570.48828808073</v>
       </c>
     </row>
     <row r="5">
@@ -26476,34 +26476,34 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
+        <v>27864.35291375756</v>
+      </c>
+      <c r="F5" t="n">
         <v>27864.35291375757</v>
       </c>
-      <c r="F5" t="n">
-        <v>27864.35291375756</v>
-      </c>
       <c r="G5" t="n">
-        <v>27864.35291375756</v>
+        <v>27864.35291375757</v>
       </c>
       <c r="H5" t="n">
-        <v>27864.35291375756</v>
+        <v>27864.35291375757</v>
       </c>
       <c r="I5" t="n">
-        <v>27864.35291375756</v>
+        <v>27864.35291375757</v>
       </c>
       <c r="J5" t="n">
-        <v>27864.35291375756</v>
+        <v>27864.35291375757</v>
       </c>
       <c r="K5" t="n">
-        <v>27864.35291375756</v>
+        <v>27864.35291375757</v>
       </c>
       <c r="L5" t="n">
-        <v>27864.35291375756</v>
+        <v>27864.35291375757</v>
       </c>
       <c r="M5" t="n">
-        <v>27864.35291375756</v>
+        <v>27864.35291375757</v>
       </c>
       <c r="N5" t="n">
-        <v>27864.35291375758</v>
+        <v>27864.35291375757</v>
       </c>
       <c r="O5" t="n">
         <v>27864.35291375757</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>94016.7231173804</v>
+        <v>95821.96280108806</v>
       </c>
       <c r="C6" t="n">
-        <v>174786.1546489281</v>
+        <v>176591.3943326357</v>
       </c>
       <c r="D6" t="n">
-        <v>174786.1546489283</v>
+        <v>176591.3943326359</v>
       </c>
       <c r="E6" t="n">
-        <v>40180.6794396959</v>
+        <v>42023.99971013371</v>
       </c>
       <c r="F6" t="n">
-        <v>207120.8495649426</v>
+        <v>208964.1698353807</v>
       </c>
       <c r="G6" t="n">
-        <v>207120.8495649426</v>
+        <v>208964.1698353805</v>
       </c>
       <c r="H6" t="n">
-        <v>207120.8495649428</v>
+        <v>208964.1698353806</v>
       </c>
       <c r="I6" t="n">
-        <v>207120.8495649428</v>
+        <v>208964.1698353806</v>
       </c>
       <c r="J6" t="n">
-        <v>144060.9069658364</v>
+        <v>145904.2272362743</v>
       </c>
       <c r="K6" t="n">
-        <v>207120.8495649428</v>
+        <v>208964.1698353807</v>
       </c>
       <c r="L6" t="n">
-        <v>207120.8495649428</v>
+        <v>208964.1698353807</v>
       </c>
       <c r="M6" t="n">
-        <v>166070.1517024948</v>
+        <v>167913.4719729328</v>
       </c>
       <c r="N6" t="n">
-        <v>207120.8495649428</v>
+        <v>208964.1698353806</v>
       </c>
       <c r="O6" t="n">
-        <v>207120.8495649428</v>
+        <v>208964.1698353807</v>
       </c>
       <c r="P6" t="n">
-        <v>207120.8495649428</v>
+        <v>208964.1698353807</v>
       </c>
     </row>
   </sheetData>
@@ -26805,10 +26805,10 @@
         <v>405.7415719969023</v>
       </c>
       <c r="H4" t="n">
-        <v>405.7415719969023</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="I4" t="n">
-        <v>405.7415719969023</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="J4" t="n">
         <v>405.7415719969023</v>
@@ -26823,7 +26823,7 @@
         <v>405.7415719969023</v>
       </c>
       <c r="N4" t="n">
-        <v>405.7415719969024</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O4" t="n">
         <v>405.7415719969023</v>
@@ -27455,28 +27455,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>26.23646281822218</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27518,13 +27518,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>239.493856933561</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27546,7 +27546,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G4" t="n">
         <v>167.9909793584588</v>
@@ -27561,7 +27561,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,7 +27576,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -27585,7 +27585,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>115.8205630125936</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
         <v>227.9455894282815</v>
@@ -27625,13 +27625,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>359.7625155545542</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>277.0585344134748</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
@@ -27679,10 +27679,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27713,7 +27713,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,16 +27743,16 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>38.27638683333814</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>35.77382341366379</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -27777,7 +27777,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>15.42850543284433</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27792,13 +27792,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>155.4504749272583</v>
+        <v>140.6136200195524</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27813,7 +27813,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -27868,13 +27868,13 @@
         <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>268.4601236753789</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -27913,10 +27913,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>167.4364142495718</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27941,16 +27941,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -27977,22 +27977,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>70.27973513009792</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>21.17305198522826</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>162.2736845391249</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28032,10 +28032,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28074,7 +28074,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -34781,22 +34781,22 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M3" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35252,19 +35252,19 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
@@ -35489,10 +35489,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>177.5326105223149</v>
       </c>
       <c r="L12" t="n">
-        <v>116.0723750175074</v>
+        <v>48.87891772828622</v>
       </c>
       <c r="M12" t="n">
         <v>403.4526632366293</v>
@@ -35507,7 +35507,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q12" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35656,7 +35656,7 @@
         <v>322.6315268094071</v>
       </c>
       <c r="N14" t="n">
-        <v>313.0722467132387</v>
+        <v>313.0722467132385</v>
       </c>
       <c r="O14" t="n">
         <v>249.9811662707763</v>
@@ -35729,13 +35729,13 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>116.0723750175073</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M15" t="n">
         <v>403.4526632366293</v>
       </c>
       <c r="N15" t="n">
-        <v>405.7415719969023</v>
+        <v>331.4139538013791</v>
       </c>
       <c r="O15" t="n">
         <v>326.276269873291</v>
@@ -35744,7 +35744,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q15" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35890,7 +35890,7 @@
         <v>274.8802469209098</v>
       </c>
       <c r="M17" t="n">
-        <v>322.6315268094068</v>
+        <v>322.6315268094071</v>
       </c>
       <c r="N17" t="n">
         <v>313.0722467132387</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>29.03928828696147</v>
       </c>
       <c r="K18" t="n">
         <v>177.5326105223149</v>
@@ -35969,7 +35969,7 @@
         <v>300.7391464461244</v>
       </c>
       <c r="M18" t="n">
-        <v>41.25328128569732</v>
+        <v>12.21399299873585</v>
       </c>
       <c r="N18" t="n">
         <v>405.7415719969023</v>
@@ -36203,13 +36203,13 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>197.3722399636396</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M21" t="n">
-        <v>403.4526632366293</v>
+        <v>189.7466035210509</v>
       </c>
       <c r="N21" t="n">
-        <v>405.7415719969023</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="O21" t="n">
         <v>326.276269873291</v>
@@ -36218,7 +36218,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>29.03928828696147</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>177.5326105223149</v>
@@ -36443,16 +36443,16 @@
         <v>300.7391464461244</v>
       </c>
       <c r="M24" t="n">
-        <v>403.4526632366293</v>
+        <v>396.2830902804151</v>
       </c>
       <c r="N24" t="n">
-        <v>405.7415719969023</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="O24" t="n">
-        <v>45.37675286849139</v>
+        <v>326.276269873291</v>
       </c>
       <c r="P24" t="n">
-        <v>244.6906557616239</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36674,19 +36674,19 @@
         <v>29.03928828696147</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>177.5326105223149</v>
       </c>
       <c r="L27" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M27" t="n">
-        <v>300.0857567541445</v>
+        <v>403.4526632366293</v>
       </c>
       <c r="N27" t="n">
         <v>405.7415719969023</v>
       </c>
       <c r="O27" t="n">
-        <v>326.276269873291</v>
+        <v>45.37675286849116</v>
       </c>
       <c r="P27" t="n">
         <v>244.6906557616239</v>
@@ -36914,7 +36914,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>197.3722399636396</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M30" t="n">
         <v>403.4526632366293</v>
@@ -36926,10 +36926,10 @@
         <v>326.276269873291</v>
       </c>
       <c r="P30" t="n">
-        <v>244.6906557616239</v>
+        <v>30.98459604604517</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>29.03928828696147</v>
       </c>
       <c r="K36" t="n">
         <v>177.5326105223149</v>
@@ -37391,10 +37391,10 @@
         <v>300.7391464461244</v>
       </c>
       <c r="M36" t="n">
-        <v>151.5924345187911</v>
+        <v>403.4526632366293</v>
       </c>
       <c r="N36" t="n">
-        <v>405.7415719969023</v>
+        <v>14.50290175900885</v>
       </c>
       <c r="O36" t="n">
         <v>326.276269873291</v>
@@ -37403,7 +37403,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37558,7 +37558,7 @@
         <v>249.9811662707763</v>
       </c>
       <c r="P38" t="n">
-        <v>175.2982096635897</v>
+        <v>175.2982096635898</v>
       </c>
       <c r="Q38" t="n">
         <v>53.63987744680307</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>29.03928828696147</v>
       </c>
       <c r="K39" t="n">
         <v>177.5326105223149</v>
@@ -37628,10 +37628,10 @@
         <v>300.7391464461244</v>
       </c>
       <c r="M39" t="n">
-        <v>151.5924345187913</v>
+        <v>403.4526632366293</v>
       </c>
       <c r="N39" t="n">
-        <v>405.7415719969024</v>
+        <v>124.8420549921024</v>
       </c>
       <c r="O39" t="n">
         <v>326.276269873291</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>29.03928828696147</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -37871,10 +37871,10 @@
         <v>405.7415719969023</v>
       </c>
       <c r="O42" t="n">
-        <v>251.9486516777673</v>
+        <v>326.276269873291</v>
       </c>
       <c r="P42" t="n">
-        <v>244.690655761624</v>
+        <v>141.323749279139</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38032,7 +38032,7 @@
         <v>249.9811662707763</v>
       </c>
       <c r="P44" t="n">
-        <v>175.2982096635898</v>
+        <v>175.2982096635895</v>
       </c>
       <c r="Q44" t="n">
         <v>53.63987744680307</v>
@@ -38093,19 +38093,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>29.03928828696147</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>177.5326105223149</v>
       </c>
       <c r="L45" t="n">
-        <v>87.03308673054569</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M45" t="n">
         <v>403.4526632366293</v>
       </c>
       <c r="N45" t="n">
-        <v>405.7415719969023</v>
+        <v>43.5421900459702</v>
       </c>
       <c r="O45" t="n">
         <v>326.276269873291</v>
